--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H2">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I2">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J2">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N2">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O2">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P2">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q2">
-        <v>79.40938462970567</v>
+        <v>89.25223777135112</v>
       </c>
       <c r="R2">
-        <v>79.40938462970567</v>
+        <v>803.2701399421601</v>
       </c>
       <c r="S2">
-        <v>0.2606418547206322</v>
+        <v>0.2594740270198423</v>
       </c>
       <c r="T2">
-        <v>0.2606418547206322</v>
+        <v>0.2594740270198423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H3">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I3">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J3">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N3">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O3">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P3">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q3">
-        <v>97.17385175186087</v>
+        <v>104.1176019592195</v>
       </c>
       <c r="R3">
-        <v>97.17385175186087</v>
+        <v>937.058417632975</v>
       </c>
       <c r="S3">
-        <v>0.3189493668671268</v>
+        <v>0.3026906006907923</v>
       </c>
       <c r="T3">
-        <v>0.3189493668671268</v>
+        <v>0.3026906006907923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H4">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I4">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J4">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N4">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O4">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P4">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q4">
-        <v>35.60961603256354</v>
+        <v>43.78798663724222</v>
       </c>
       <c r="R4">
-        <v>35.60961603256354</v>
+        <v>394.09187973518</v>
       </c>
       <c r="S4">
-        <v>0.1168798425009445</v>
+        <v>0.1273003961756497</v>
       </c>
       <c r="T4">
-        <v>0.1168798425009445</v>
+        <v>0.1273003961756497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H5">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I5">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J5">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.43953854905478</v>
+        <v>2.767576666666667</v>
       </c>
       <c r="N5">
-        <v>2.43953854905478</v>
+        <v>8.30273</v>
       </c>
       <c r="O5">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="P5">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="Q5">
-        <v>56.79113845539923</v>
+        <v>65.93505555272777</v>
       </c>
       <c r="R5">
-        <v>56.79113845539923</v>
+        <v>593.41549997455</v>
       </c>
       <c r="S5">
-        <v>0.1864030017073605</v>
+        <v>0.1916863354157255</v>
       </c>
       <c r="T5">
-        <v>0.1864030017073605</v>
+        <v>0.1916863354157255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H6">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I6">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J6">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N6">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O6">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P6">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q6">
-        <v>8.145209759176334</v>
+        <v>9.257898220650667</v>
       </c>
       <c r="R6">
-        <v>8.145209759176334</v>
+        <v>83.32108398585601</v>
       </c>
       <c r="S6">
-        <v>0.02673465596818317</v>
+        <v>0.02691455355109464</v>
       </c>
       <c r="T6">
-        <v>0.02673465596818317</v>
+        <v>0.02691455355109464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H7">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I7">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J7">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N7">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O7">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P7">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q7">
-        <v>9.967353472349217</v>
+        <v>10.79984307380667</v>
       </c>
       <c r="R7">
-        <v>9.967353472349217</v>
+        <v>97.19858766426</v>
       </c>
       <c r="S7">
-        <v>0.03271539639557162</v>
+        <v>0.03139729426977422</v>
       </c>
       <c r="T7">
-        <v>0.03271539639557162</v>
+        <v>0.03139729426977422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H8">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I8">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J8">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N8">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O8">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P8">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q8">
-        <v>3.652563149575859</v>
+        <v>4.542011872165333</v>
       </c>
       <c r="R8">
-        <v>3.652563149575859</v>
+        <v>40.878106849488</v>
       </c>
       <c r="S8">
-        <v>0.01198864388924574</v>
+        <v>0.01320453291335814</v>
       </c>
       <c r="T8">
-        <v>0.01198864388924574</v>
+        <v>0.01320453291335814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H9">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I9">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J9">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.43953854905478</v>
+        <v>2.767576666666667</v>
       </c>
       <c r="N9">
-        <v>2.43953854905478</v>
+        <v>8.30273</v>
       </c>
       <c r="O9">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="P9">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="Q9">
-        <v>5.825202365421815</v>
+        <v>6.839268669586667</v>
       </c>
       <c r="R9">
-        <v>5.825202365421815</v>
+        <v>61.55341802628001</v>
       </c>
       <c r="S9">
-        <v>0.0191197999547095</v>
+        <v>0.01988311585099462</v>
       </c>
       <c r="T9">
-        <v>0.0191197999547095</v>
+        <v>0.01988311585099462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.7005252691181399</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H10">
-        <v>0.7005252691181399</v>
+        <v>0.085106</v>
       </c>
       <c r="I10">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="J10">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N10">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O10">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P10">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q10">
-        <v>2.389586447491705</v>
+        <v>0.1062774981084444</v>
       </c>
       <c r="R10">
-        <v>2.389586447491705</v>
+        <v>0.956497482976</v>
       </c>
       <c r="S10">
-        <v>0.00784323221485507</v>
+        <v>0.0003089698488730038</v>
       </c>
       <c r="T10">
-        <v>0.00784323221485507</v>
+        <v>0.0003089698488730039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.7005252691181399</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H11">
-        <v>0.7005252691181399</v>
+        <v>0.085106</v>
       </c>
       <c r="I11">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="J11">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N11">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O11">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P11">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q11">
-        <v>2.924154623280518</v>
+        <v>0.1239784964677778</v>
       </c>
       <c r="R11">
-        <v>2.924154623280518</v>
+        <v>1.11580646821</v>
       </c>
       <c r="S11">
-        <v>0.00959782131615507</v>
+        <v>0.0003604301757091129</v>
       </c>
       <c r="T11">
-        <v>0.00959782131615507</v>
+        <v>0.0003604301757091129</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.7005252691181399</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H12">
-        <v>0.7005252691181399</v>
+        <v>0.085106</v>
       </c>
       <c r="I12">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="J12">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N12">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O12">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P12">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q12">
-        <v>1.071564227182861</v>
+        <v>0.05214073936088889</v>
       </c>
       <c r="R12">
-        <v>1.071564227182861</v>
+        <v>0.469266654248</v>
       </c>
       <c r="S12">
-        <v>0.0035171471095967</v>
+        <v>0.0001515835115352653</v>
       </c>
       <c r="T12">
-        <v>0.0035171471095967</v>
+        <v>0.0001515835115352653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.085106</v>
+      </c>
+      <c r="I13">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J13">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.767576666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.30273</v>
+      </c>
+      <c r="O13">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="P13">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="Q13">
+        <v>0.07851245993111111</v>
+      </c>
+      <c r="R13">
+        <v>0.70661213938</v>
+      </c>
+      <c r="S13">
+        <v>0.0002282513543441771</v>
+      </c>
+      <c r="T13">
+        <v>0.0002282513543441771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.141361</v>
+      </c>
+      <c r="I14">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J14">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.746298666666667</v>
+      </c>
+      <c r="N14">
+        <v>11.238896</v>
+      </c>
+      <c r="O14">
+        <v>0.2944715732214049</v>
+      </c>
+      <c r="P14">
+        <v>0.294471573221405</v>
+      </c>
+      <c r="Q14">
+        <v>2.674059286384</v>
+      </c>
+      <c r="R14">
+        <v>24.066533577456</v>
+      </c>
+      <c r="S14">
+        <v>0.007774022801595002</v>
+      </c>
+      <c r="T14">
+        <v>0.007774022801595002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.141361</v>
+      </c>
+      <c r="I15">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J15">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.370261666666667</v>
+      </c>
+      <c r="N15">
+        <v>13.110785</v>
+      </c>
+      <c r="O15">
+        <v>0.3435171466234404</v>
+      </c>
+      <c r="P15">
+        <v>0.3435171466234404</v>
+      </c>
+      <c r="Q15">
+        <v>3.119435964265</v>
+      </c>
+      <c r="R15">
+        <v>28.074923678385</v>
+      </c>
+      <c r="S15">
+        <v>0.00906882148716473</v>
+      </c>
+      <c r="T15">
+        <v>0.00906882148716473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7005252691181399</v>
-      </c>
-      <c r="H13">
-        <v>0.7005252691181399</v>
-      </c>
-      <c r="I13">
-        <v>0.02656743799622608</v>
-      </c>
-      <c r="J13">
-        <v>0.02656743799622608</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.43953854905478</v>
-      </c>
-      <c r="N13">
-        <v>2.43953854905478</v>
-      </c>
-      <c r="O13">
-        <v>0.2111320390176893</v>
-      </c>
-      <c r="P13">
-        <v>0.2111320390176893</v>
-      </c>
-      <c r="Q13">
-        <v>1.708958398600676</v>
-      </c>
-      <c r="R13">
-        <v>1.708958398600676</v>
-      </c>
-      <c r="S13">
-        <v>0.005609237355619245</v>
-      </c>
-      <c r="T13">
-        <v>0.005609237355619245</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.141361</v>
+      </c>
+      <c r="I16">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J16">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.837969333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.513908</v>
+      </c>
+      <c r="O16">
+        <v>0.1444705212467569</v>
+      </c>
+      <c r="P16">
+        <v>0.1444705212467569</v>
+      </c>
+      <c r="Q16">
+        <v>1.311918616532</v>
+      </c>
+      <c r="R16">
+        <v>11.807267548788</v>
+      </c>
+      <c r="S16">
+        <v>0.003814008646213747</v>
+      </c>
+      <c r="T16">
+        <v>0.003814008646213747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.141361</v>
+      </c>
+      <c r="I17">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J17">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.767576666666667</v>
+      </c>
+      <c r="N17">
+        <v>8.30273</v>
+      </c>
+      <c r="O17">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="P17">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="Q17">
+        <v>1.97546024617</v>
+      </c>
+      <c r="R17">
+        <v>17.77914221553</v>
+      </c>
+      <c r="S17">
+        <v>0.00574305628733346</v>
+      </c>
+      <c r="T17">
+        <v>0.00574305628733346</v>
       </c>
     </row>
   </sheetData>
